--- a/cp_1/results_for_letters_with_space.xlsx
+++ b/cp_1/results_for_letters_with_space.xlsx
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.07374578006301331</v>
+        <v>0.07611394332627118</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01386491563439029</v>
+        <v>0.01491988877118644</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03575392342325927</v>
+        <v>0.03820511122881356</v>
       </c>
     </row>
     <row r="4">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01749927942194732</v>
+        <v>0.01813923463983051</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02355544806702867</v>
+        <v>0.02425185381355932</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06462342756616894</v>
+        <v>0.06498113082627119</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008532638044533381</v>
+        <v>0.008598715572033898</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01555123392779642</v>
+        <v>0.01576403601694915</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05503725471357437</v>
+        <v>0.05594213453389831</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00997048114735904</v>
+        <v>0.00998245497881356</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0282300946524826</v>
+        <v>0.02977356991525424</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04172561050354326</v>
+        <v>0.04193425582627119</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02239921018019421</v>
+        <v>0.02400357521186441</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05795104044844802</v>
+        <v>0.05972093485169491</v>
       </c>
     </row>
     <row r="15">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09048141239924332</v>
+        <v>0.09224874205508475</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01887251897522205</v>
+        <v>0.02147113347457627</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03530335507767334</v>
+        <v>0.03576370497881356</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04056109011035611</v>
+        <v>0.04141452595338983</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04591490221673</v>
+        <v>0.04653237552966102</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02183268674567073</v>
+        <v>0.02200907044491525</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001828777402672268</v>
+        <v>0.001931607521186441</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.007291918592901561</v>
+        <v>0.007435116525423729</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.003423988126198893</v>
+        <v>0.003454382944915254</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01073578473434689</v>
+        <v>0.01107653601694915</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.006894358287972807</v>
+        <v>0.007027939618644068</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.002208116193625121</v>
+        <v>0.002219610699152542</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001871846435706216</v>
+        <v>0.0001870365466101695</v>
       </c>
     </row>
     <row r="28">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01542533983123565</v>
+        <v>0.01541313559322034</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0181204673983985</v>
+        <v>0.01811275158898305</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002118665125016151</v>
+        <v>0.002484441207627119</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.005842479981182145</v>
+        <v>0.005877582097457627</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02104419214089537</v>
+        <v>0.02192300052966102</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1827369376592312</v>
+        <v>0.1603515625</v>
       </c>
     </row>
   </sheetData>
